--- a/scripts/correlation/metric_df/SNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/SNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.234744893</v>
       </c>
       <c r="C2" t="n">
-        <v>2.009062200003214</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="D2" t="n">
-        <v>2.009062200003214</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="E2" t="n">
-        <v>2.009062200003214</v>
+        <v>7.876866280977818</v>
       </c>
       <c r="F2" t="n">
-        <v>3.761611261126115</v>
+        <v>8.504671733840048</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -509,7 +509,7 @@
         <v>3.86882093250379</v>
       </c>
       <c r="E3" t="n">
-        <v>3.86882093250379</v>
+        <v>7.73764186500758</v>
       </c>
       <c r="F3" t="n">
         <v>4.466737199999995</v>
@@ -536,7 +536,7 @@
         <v>4.037903583503363</v>
       </c>
       <c r="E4" t="n">
-        <v>4.037903583503363</v>
+        <v>8.075807167006726</v>
       </c>
       <c r="F4" t="n">
         <v>6.385817071428574</v>
@@ -559,7 +559,7 @@
         <v>3.860493575864734</v>
       </c>
       <c r="E5" t="n">
-        <v>3.860493575864734</v>
+        <v>7.720987151729467</v>
       </c>
       <c r="F5" t="n">
         <v>4.048817481748173</v>
@@ -586,7 +586,7 @@
         <v>4.157103523039212</v>
       </c>
       <c r="E6" t="n">
-        <v>4.157103523039212</v>
+        <v>8.314207046078424</v>
       </c>
       <c r="F6" t="n">
         <v>7.785180066666669</v>
@@ -603,16 +603,16 @@
         <v>-0.47927224</v>
       </c>
       <c r="C7" t="n">
-        <v>1.440538974209805</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="D7" t="n">
-        <v>1.440538974209805</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="E7" t="n">
-        <v>1.440538974209805</v>
+        <v>7.590739082110115</v>
       </c>
       <c r="F7" t="n">
-        <v>6.440231333333334</v>
+        <v>15.64729126666667</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -632,7 +632,7 @@
         <v>3.815165399585339</v>
       </c>
       <c r="E8" t="n">
-        <v>3.815165399585339</v>
+        <v>7.630330799170678</v>
       </c>
       <c r="F8" t="n">
         <v>40.83701976864354</v>
@@ -659,7 +659,7 @@
         <v>4.148720083623762</v>
       </c>
       <c r="E9" t="n">
-        <v>4.148720083623762</v>
+        <v>8.297440167247524</v>
       </c>
       <c r="F9" t="n">
         <v>5.098022002200216</v>
@@ -682,7 +682,7 @@
         <v>4.267455298719907</v>
       </c>
       <c r="E10" t="n">
-        <v>4.267455298719907</v>
+        <v>8.534910597439813</v>
       </c>
       <c r="F10" t="n">
         <v>3.096462412907956</v>
@@ -709,7 +709,7 @@
         <v>4.021427922899613</v>
       </c>
       <c r="E11" t="n">
-        <v>4.021427922899613</v>
+        <v>8.042855845799226</v>
       </c>
       <c r="F11" t="n">
         <v>5.357852259999998</v>
@@ -730,16 +730,16 @@
         <v>0.229045047</v>
       </c>
       <c r="C12" t="n">
-        <v>4.109653098323708</v>
+        <v>2.47486570032587</v>
       </c>
       <c r="D12" t="n">
-        <v>4.109653098323708</v>
+        <v>2.47486570032587</v>
       </c>
       <c r="E12" t="n">
-        <v>4.109653098323708</v>
+        <v>4.949731400651741</v>
       </c>
       <c r="F12" t="n">
-        <v>31.99390215</v>
+        <v>21.96318225</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>3.432590204636147</v>
       </c>
       <c r="E13" t="n">
-        <v>3.432590204636147</v>
+        <v>6.865180409272295</v>
       </c>
       <c r="F13" t="n">
         <v>62.27225740000001</v>
@@ -790,7 +790,7 @@
         <v>3.918236369513348</v>
       </c>
       <c r="E14" t="n">
-        <v>7.655021391887416</v>
+        <v>15.31004278377483</v>
       </c>
       <c r="F14" t="n">
         <v>51.5655028</v>
@@ -811,16 +811,16 @@
         <v>2.912239285</v>
       </c>
       <c r="C15" t="n">
-        <v>3.589224409614446</v>
+        <v>1.773351873677533</v>
       </c>
       <c r="D15" t="n">
-        <v>3.952893427540636</v>
+        <v>1.824471573310253</v>
       </c>
       <c r="E15" t="n">
-        <v>7.178448819228891</v>
+        <v>7.093407494710131</v>
       </c>
       <c r="F15" t="n">
-        <v>52.87334875000001</v>
+        <v>22.1716441125</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>4.390569521716285</v>
       </c>
       <c r="E16" t="n">
-        <v>4.390569521716285</v>
+        <v>8.781139043432571</v>
       </c>
       <c r="F16" t="n">
         <v>0.8284271027102699</v>
@@ -871,7 +871,7 @@
         <v>4.536346695756726</v>
       </c>
       <c r="E17" t="n">
-        <v>4.536346695756726</v>
+        <v>9.072693391513452</v>
       </c>
       <c r="F17" t="n">
         <v>2.247657833333334</v>
@@ -898,7 +898,7 @@
         <v>2.903344547648542</v>
       </c>
       <c r="E18" t="n">
-        <v>2.903344547648542</v>
+        <v>5.806689095297084</v>
       </c>
       <c r="F18" t="n">
         <v>26.00082815</v>
@@ -925,7 +925,7 @@
         <v>4.097181451668026</v>
       </c>
       <c r="E19" t="n">
-        <v>8.005216139406006</v>
+        <v>16.01043227881201</v>
       </c>
       <c r="F19" t="n">
         <v>54.44175824999999</v>

--- a/scripts/correlation/metric_df/SNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/SNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.234744893</v>
       </c>
       <c r="C2" t="n">
-        <v>3.938433140488909</v>
+        <v>1.004531100001607</v>
       </c>
       <c r="D2" t="n">
-        <v>3.938433140488909</v>
+        <v>2.009062200003214</v>
       </c>
       <c r="E2" t="n">
-        <v>7.876866280977818</v>
+        <v>2.009062200003214</v>
       </c>
       <c r="F2" t="n">
-        <v>8.504671733840048</v>
+        <v>1.880805630563057</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -503,16 +503,16 @@
         <v>-0.042915513</v>
       </c>
       <c r="C3" t="n">
-        <v>3.86882093250379</v>
+        <v>1.934410466251895</v>
       </c>
       <c r="D3" t="n">
         <v>3.86882093250379</v>
       </c>
       <c r="E3" t="n">
-        <v>7.73764186500758</v>
+        <v>3.86882093250379</v>
       </c>
       <c r="F3" t="n">
-        <v>4.466737199999995</v>
+        <v>2.233368599999998</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -530,16 +530,16 @@
         <v>-0.213091828</v>
       </c>
       <c r="C4" t="n">
-        <v>4.037903583503363</v>
+        <v>2.018951791751681</v>
       </c>
       <c r="D4" t="n">
         <v>4.037903583503363</v>
       </c>
       <c r="E4" t="n">
-        <v>8.075807167006726</v>
+        <v>4.037903583503363</v>
       </c>
       <c r="F4" t="n">
-        <v>6.385817071428574</v>
+        <v>3.192908535714287</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -553,16 +553,16 @@
         <v>-0.227259912</v>
       </c>
       <c r="C5" t="n">
-        <v>3.860493575864734</v>
+        <v>1.930246787932367</v>
       </c>
       <c r="D5" t="n">
         <v>3.860493575864734</v>
       </c>
       <c r="E5" t="n">
-        <v>7.720987151729467</v>
+        <v>3.860493575864734</v>
       </c>
       <c r="F5" t="n">
-        <v>4.048817481748173</v>
+        <v>2.024408740874086</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -580,16 +580,16 @@
         <v>-0.234744893</v>
       </c>
       <c r="C6" t="n">
-        <v>4.157103523039212</v>
+        <v>2.078551761519606</v>
       </c>
       <c r="D6" t="n">
         <v>4.157103523039212</v>
       </c>
       <c r="E6" t="n">
-        <v>8.314207046078424</v>
+        <v>4.157103523039212</v>
       </c>
       <c r="F6" t="n">
-        <v>7.785180066666669</v>
+        <v>3.892590033333335</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -603,16 +603,16 @@
         <v>-0.47927224</v>
       </c>
       <c r="C7" t="n">
-        <v>3.795369541055058</v>
+        <v>0.7202694871049024</v>
       </c>
       <c r="D7" t="n">
-        <v>3.795369541055058</v>
+        <v>1.440538974209805</v>
       </c>
       <c r="E7" t="n">
-        <v>7.590739082110115</v>
+        <v>1.440538974209805</v>
       </c>
       <c r="F7" t="n">
-        <v>15.64729126666667</v>
+        <v>3.220115666666667</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -626,16 +626,16 @@
         <v>0.305538763</v>
       </c>
       <c r="C8" t="n">
-        <v>3.815165399585339</v>
+        <v>1.907582699792669</v>
       </c>
       <c r="D8" t="n">
         <v>3.815165399585339</v>
       </c>
       <c r="E8" t="n">
-        <v>7.630330799170678</v>
+        <v>3.815165399585339</v>
       </c>
       <c r="F8" t="n">
-        <v>40.83701976864354</v>
+        <v>20.41850988432177</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -653,16 +653,16 @@
         <v>0.08401177999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>4.148720083623762</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>4.148720083623762</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>8.297440167247524</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>5.098022002200216</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -676,16 +676,16 @@
         <v>2.232675228</v>
       </c>
       <c r="C10" t="n">
-        <v>4.267455298719907</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4.267455298719907</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.534910597439813</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>3.096462412907956</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -703,16 +703,16 @@
         <v>0.409447886</v>
       </c>
       <c r="C11" t="n">
-        <v>4.021427922899613</v>
+        <v>2.010713961449806</v>
       </c>
       <c r="D11" t="n">
         <v>4.021427922899613</v>
       </c>
       <c r="E11" t="n">
-        <v>8.042855845799226</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="F11" t="n">
-        <v>5.357852259999998</v>
+        <v>2.678926129999999</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
         <v>0.229045047</v>
       </c>
       <c r="C12" t="n">
-        <v>2.47486570032587</v>
+        <v>2.054826549161854</v>
       </c>
       <c r="D12" t="n">
-        <v>2.47486570032587</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="E12" t="n">
-        <v>4.949731400651741</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="F12" t="n">
-        <v>21.96318225</v>
+        <v>15.996951075</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -757,16 +757,16 @@
         <v>1.558956599</v>
       </c>
       <c r="C13" t="n">
-        <v>3.432590204636147</v>
+        <v>1.716295102318074</v>
       </c>
       <c r="D13" t="n">
         <v>3.432590204636147</v>
       </c>
       <c r="E13" t="n">
-        <v>6.865180409272295</v>
+        <v>3.432590204636147</v>
       </c>
       <c r="F13" t="n">
-        <v>62.27225740000001</v>
+        <v>31.1361287</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -784,16 +784,16 @@
         <v>2.268393912</v>
       </c>
       <c r="C14" t="n">
-        <v>3.827510695943708</v>
+        <v>1.913755347971854</v>
       </c>
       <c r="D14" t="n">
         <v>3.918236369513348</v>
       </c>
       <c r="E14" t="n">
-        <v>15.31004278377483</v>
+        <v>7.655021391887416</v>
       </c>
       <c r="F14" t="n">
-        <v>51.5655028</v>
+        <v>25.7827514</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -811,16 +811,16 @@
         <v>2.912239285</v>
       </c>
       <c r="C15" t="n">
-        <v>1.773351873677533</v>
+        <v>1.794612204807223</v>
       </c>
       <c r="D15" t="n">
-        <v>1.824471573310253</v>
+        <v>3.952893427540636</v>
       </c>
       <c r="E15" t="n">
-        <v>7.093407494710131</v>
+        <v>7.178448819228891</v>
       </c>
       <c r="F15" t="n">
-        <v>22.1716441125</v>
+        <v>26.436674375</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
         <v>-0.136458867</v>
       </c>
       <c r="C16" t="n">
-        <v>4.390569521716285</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4.390569521716285</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8.781139043432571</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8284271027102699</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -865,16 +865,16 @@
         <v>2.392088628</v>
       </c>
       <c r="C17" t="n">
-        <v>4.536346695756726</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.536346695756726</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>9.072693391513452</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2.247657833333334</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -892,16 +892,16 @@
         <v>4.134347351</v>
       </c>
       <c r="C18" t="n">
-        <v>2.903344547648542</v>
+        <v>1.451672273824271</v>
       </c>
       <c r="D18" t="n">
         <v>2.903344547648542</v>
       </c>
       <c r="E18" t="n">
-        <v>5.806689095297084</v>
+        <v>2.903344547648542</v>
       </c>
       <c r="F18" t="n">
-        <v>26.00082815</v>
+        <v>13.000414075</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -919,16 +919,16 @@
         <v>2.264987927</v>
       </c>
       <c r="C19" t="n">
-        <v>4.002608069703003</v>
+        <v>2.001304034851501</v>
       </c>
       <c r="D19" t="n">
         <v>4.097181451668026</v>
       </c>
       <c r="E19" t="n">
-        <v>16.01043227881201</v>
+        <v>8.005216139406006</v>
       </c>
       <c r="F19" t="n">
-        <v>54.44175824999999</v>
+        <v>27.220879125</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/SNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/SNA_metrics.xlsx
@@ -491,7 +491,11 @@
       <c r="F2" t="n">
         <v>1.880805630563057</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -541,7 +545,11 @@
       <c r="F4" t="n">
         <v>3.192908535714287</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -591,7 +599,11 @@
       <c r="F6" t="n">
         <v>3.892590033333335</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,7 +626,11 @@
       <c r="F7" t="n">
         <v>3.220115666666667</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -664,7 +680,11 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">

--- a/scripts/correlation/metric_df/SNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/SNA_metrics.xlsx
@@ -480,16 +480,16 @@
         <v>-0.234744893</v>
       </c>
       <c r="C2" t="n">
-        <v>1.004531100001607</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="D2" t="n">
-        <v>2.009062200003214</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="E2" t="n">
-        <v>2.009062200003214</v>
+        <v>3.938433140488909</v>
       </c>
       <c r="F2" t="n">
-        <v>1.880805630563057</v>
+        <v>8.504671733840048</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>-0.042915513</v>
       </c>
       <c r="C3" t="n">
-        <v>1.934410466251895</v>
+        <v>3.86882093250379</v>
       </c>
       <c r="D3" t="n">
         <v>3.86882093250379</v>
@@ -516,7 +516,7 @@
         <v>3.86882093250379</v>
       </c>
       <c r="F3" t="n">
-        <v>2.233368599999998</v>
+        <v>4.466737199999995</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
         <v>-0.213091828</v>
       </c>
       <c r="C4" t="n">
-        <v>2.018951791751681</v>
+        <v>4.037903583503363</v>
       </c>
       <c r="D4" t="n">
         <v>4.037903583503363</v>
@@ -543,7 +543,7 @@
         <v>4.037903583503363</v>
       </c>
       <c r="F4" t="n">
-        <v>3.192908535714287</v>
+        <v>6.385817071428574</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         <v>-0.227259912</v>
       </c>
       <c r="C5" t="n">
-        <v>1.930246787932367</v>
+        <v>3.860493575864734</v>
       </c>
       <c r="D5" t="n">
         <v>3.860493575864734</v>
@@ -570,7 +570,7 @@
         <v>3.860493575864734</v>
       </c>
       <c r="F5" t="n">
-        <v>2.024408740874086</v>
+        <v>4.048817481748173</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>-0.234744893</v>
       </c>
       <c r="C6" t="n">
-        <v>2.078551761519606</v>
+        <v>4.157103523039212</v>
       </c>
       <c r="D6" t="n">
         <v>4.157103523039212</v>
@@ -597,7 +597,7 @@
         <v>4.157103523039212</v>
       </c>
       <c r="F6" t="n">
-        <v>3.892590033333335</v>
+        <v>7.785180066666669</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -615,16 +615,16 @@
         <v>-0.47927224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7202694871049024</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="D7" t="n">
-        <v>1.440538974209805</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="E7" t="n">
-        <v>1.440538974209805</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="F7" t="n">
-        <v>3.220115666666667</v>
+        <v>15.64729126666667</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         <v>0.305538763</v>
       </c>
       <c r="C8" t="n">
-        <v>1.907582699792669</v>
+        <v>3.815165399585339</v>
       </c>
       <c r="D8" t="n">
         <v>3.815165399585339</v>
@@ -651,7 +651,7 @@
         <v>3.815165399585339</v>
       </c>
       <c r="F8" t="n">
-        <v>20.41850988432177</v>
+        <v>40.83701976864354</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -669,16 +669,16 @@
         <v>0.08401177999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.098022002200216</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -696,16 +696,16 @@
         <v>2.232675228</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.096462412907956</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -723,7 +723,7 @@
         <v>0.409447886</v>
       </c>
       <c r="C11" t="n">
-        <v>2.010713961449806</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="D11" t="n">
         <v>4.021427922899613</v>
@@ -732,7 +732,7 @@
         <v>4.021427922899613</v>
       </c>
       <c r="F11" t="n">
-        <v>2.678926129999999</v>
+        <v>5.357852259999998</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         <v>0.229045047</v>
       </c>
       <c r="C12" t="n">
-        <v>2.054826549161854</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="D12" t="n">
         <v>4.109653098323708</v>
@@ -759,7 +759,7 @@
         <v>4.109653098323708</v>
       </c>
       <c r="F12" t="n">
-        <v>15.996951075</v>
+        <v>31.99390215</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>1.558956599</v>
       </c>
       <c r="C13" t="n">
-        <v>1.716295102318074</v>
+        <v>3.432590204636147</v>
       </c>
       <c r="D13" t="n">
         <v>3.432590204636147</v>
@@ -786,7 +786,7 @@
         <v>3.432590204636147</v>
       </c>
       <c r="F13" t="n">
-        <v>31.1361287</v>
+        <v>62.27225740000001</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         <v>2.268393912</v>
       </c>
       <c r="C14" t="n">
-        <v>1.913755347971854</v>
+        <v>3.827510695943708</v>
       </c>
       <c r="D14" t="n">
         <v>3.918236369513348</v>
@@ -813,7 +813,7 @@
         <v>7.655021391887416</v>
       </c>
       <c r="F14" t="n">
-        <v>25.7827514</v>
+        <v>51.5655028</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>2.912239285</v>
       </c>
       <c r="C15" t="n">
-        <v>1.794612204807223</v>
+        <v>3.589224409614446</v>
       </c>
       <c r="D15" t="n">
         <v>3.952893427540636</v>
@@ -840,7 +840,7 @@
         <v>7.178448819228891</v>
       </c>
       <c r="F15" t="n">
-        <v>26.436674375</v>
+        <v>52.87334875000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -858,16 +858,16 @@
         <v>-0.136458867</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.390569521716285</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.390569521716285</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>4.390569521716285</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.8284271027102699</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -885,16 +885,16 @@
         <v>2.392088628</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.536346695756726</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>4.536346695756726</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4.536346695756726</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.247657833333334</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -912,16 +912,16 @@
         <v>4.134347351</v>
       </c>
       <c r="C18" t="n">
-        <v>1.451672273824271</v>
+        <v>3.829348253889487</v>
       </c>
       <c r="D18" t="n">
-        <v>2.903344547648542</v>
+        <v>3.829348253889487</v>
       </c>
       <c r="E18" t="n">
-        <v>2.903344547648542</v>
+        <v>3.829348253889487</v>
       </c>
       <c r="F18" t="n">
-        <v>13.000414075</v>
+        <v>48.79183585000001</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>2.264987927</v>
       </c>
       <c r="C19" t="n">
-        <v>2.001304034851501</v>
+        <v>4.002608069703003</v>
       </c>
       <c r="D19" t="n">
         <v>4.097181451668026</v>
@@ -948,7 +948,7 @@
         <v>8.005216139406006</v>
       </c>
       <c r="F19" t="n">
-        <v>27.220879125</v>
+        <v>54.44175824999999</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>

--- a/scripts/correlation/metric_df/SNA_metrics.xlsx
+++ b/scripts/correlation/metric_df/SNA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted</t>
+          <t>SASA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_max</t>
+          <t>flexibility</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SASA_weighted_sum</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>weighted_mean_flexibility</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>class</t>
         </is>
@@ -477,21 +492,36 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.234744893</v>
+        <v>-0.23474489279189</v>
       </c>
       <c r="C2" t="n">
         <v>3.938433140488909</v>
       </c>
       <c r="D2" t="n">
-        <v>3.938433140488909</v>
+        <v>8.971863853051973</v>
       </c>
       <c r="E2" t="n">
-        <v>3.938433140488909</v>
+        <v>0.419</v>
       </c>
       <c r="F2" t="n">
-        <v>8.504671733840048</v>
+        <v>12.95</v>
       </c>
       <c r="G2" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -504,21 +534,36 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.042915513</v>
+        <v>-0.042915513358192</v>
       </c>
       <c r="C3" t="n">
-        <v>3.86882093250379</v>
+        <v>3.838393281831593</v>
       </c>
       <c r="D3" t="n">
-        <v>3.86882093250379</v>
+        <v>5.458500000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.86882093250379</v>
+        <v>0.399</v>
       </c>
       <c r="F3" t="n">
-        <v>4.466737199999995</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G3" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -531,21 +576,36 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.213091828</v>
+        <v>-0.2130918276813004</v>
       </c>
       <c r="C4" t="n">
         <v>4.037903583503363</v>
       </c>
       <c r="D4" t="n">
-        <v>4.037903583503363</v>
+        <v>6.456628571428572</v>
       </c>
       <c r="E4" t="n">
-        <v>4.037903583503363</v>
+        <v>0.462</v>
       </c>
       <c r="F4" t="n">
-        <v>6.385817071428574</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -554,25 +614,40 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>GlcNAc(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.227259912</v>
+        <v>-0.2319383442907753</v>
       </c>
       <c r="C5" t="n">
-        <v>3.860493575864734</v>
+        <v>3.941532126214653</v>
       </c>
       <c r="D5" t="n">
-        <v>3.860493575864734</v>
+        <v>4.206091890810919</v>
       </c>
       <c r="E5" t="n">
-        <v>3.860493575864734</v>
+        <v>0.425</v>
       </c>
       <c r="F5" t="n">
-        <v>4.048817481748173</v>
+        <v>5.06</v>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -581,52 +656,82 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.234744893</v>
+        <v>-0.2272599115145967</v>
       </c>
       <c r="C6" t="n">
-        <v>4.157103523039212</v>
+        <v>3.850616806854433</v>
       </c>
       <c r="D6" t="n">
-        <v>4.157103523039212</v>
+        <v>6.043937727106044</v>
       </c>
       <c r="E6" t="n">
-        <v>4.157103523039212</v>
+        <v>0.432</v>
       </c>
       <c r="F6" t="n">
-        <v>7.785180066666669</v>
+        <v>7.11</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GalNAc(b1-4)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.47927224</v>
+        <v>-0.23474489279189</v>
       </c>
       <c r="C7" t="n">
-        <v>3.795369541055058</v>
+        <v>4.157103523039212</v>
       </c>
       <c r="D7" t="n">
-        <v>3.795369541055058</v>
+        <v>8.752933333333335</v>
       </c>
       <c r="E7" t="n">
-        <v>3.795369541055058</v>
+        <v>0.455</v>
       </c>
       <c r="F7" t="n">
-        <v>15.64729126666667</v>
+        <v>4.09</v>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>lipid/free</t>
         </is>
@@ -635,106 +740,166 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-3)[Neu5Ac(a2-6)]GlcNAc(b1-3)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.305538763</v>
+        <v>-0.4792722396434881</v>
       </c>
       <c r="C8" t="n">
-        <v>3.815165399585339</v>
+        <v>3.795369541055058</v>
       </c>
       <c r="D8" t="n">
-        <v>3.815165399585339</v>
+        <v>15.45596666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>3.815165399585339</v>
+        <v>0.408</v>
       </c>
       <c r="F8" t="n">
-        <v>40.83701976864354</v>
+        <v>4.34</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)Glc</t>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.08401177999999999</v>
+        <v>0.3055387634231647</v>
       </c>
       <c r="C9" t="n">
-        <v>4.148720083623762</v>
+        <v>3.815165399585339</v>
       </c>
       <c r="D9" t="n">
-        <v>4.148720083623762</v>
+        <v>40.1023102310231</v>
       </c>
       <c r="E9" t="n">
-        <v>4.148720083623762</v>
+        <v>0.465</v>
       </c>
       <c r="F9" t="n">
-        <v>5.098022002200216</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>lipid/free</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.232675228</v>
+        <v>0.08401178027934381</v>
       </c>
       <c r="C10" t="n">
-        <v>4.267455298719907</v>
+        <v>4.148720083623762</v>
       </c>
       <c r="D10" t="n">
-        <v>4.267455298719907</v>
+        <v>5.113211321132114</v>
       </c>
       <c r="E10" t="n">
-        <v>4.267455298719907</v>
+        <v>0.42</v>
       </c>
       <c r="F10" t="n">
-        <v>3.096462412907956</v>
+        <v>5.14</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.409447886</v>
+        <v>2.235515654660152</v>
       </c>
       <c r="C11" t="n">
-        <v>4.021427922899613</v>
+        <v>4.267455298719907</v>
       </c>
       <c r="D11" t="n">
-        <v>4.021427922899613</v>
+        <v>3.356935693569356</v>
       </c>
       <c r="E11" t="n">
-        <v>4.021427922899613</v>
+        <v>0.414</v>
       </c>
       <c r="F11" t="n">
-        <v>5.357852259999998</v>
+        <v>10.96</v>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>O</t>
         </is>
@@ -743,52 +908,82 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.229045047</v>
+        <v>0.4094478860171773</v>
       </c>
       <c r="C12" t="n">
-        <v>4.109653098323708</v>
+        <v>4.021427922899613</v>
       </c>
       <c r="D12" t="n">
-        <v>4.109653098323708</v>
+        <v>6.082259999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>4.109653098323708</v>
+        <v>0.432</v>
       </c>
       <c r="F12" t="n">
-        <v>31.99390215</v>
+        <v>5.11</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Man(a1-3)[Man(a1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.558956599</v>
+        <v>0.2290450469350539</v>
       </c>
       <c r="C13" t="n">
-        <v>3.432590204636147</v>
+        <v>4.109653098323708</v>
       </c>
       <c r="D13" t="n">
-        <v>3.432590204636147</v>
+        <v>32.88765</v>
       </c>
       <c r="E13" t="n">
-        <v>3.432590204636147</v>
+        <v>0.484</v>
       </c>
       <c r="F13" t="n">
-        <v>62.27225740000001</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -797,25 +992,40 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.268393912</v>
+        <v>1.558956598708927</v>
       </c>
       <c r="C14" t="n">
-        <v>3.827510695943708</v>
+        <v>3.432590204636147</v>
       </c>
       <c r="D14" t="n">
-        <v>3.918236369513348</v>
+        <v>62.56280000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>7.655021391887416</v>
+        <v>0.367</v>
       </c>
       <c r="F14" t="n">
-        <v>51.5655028</v>
+        <v>8.18</v>
       </c>
       <c r="G14" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -824,25 +1034,40 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.912239285</v>
+        <v>2.346755865104959</v>
       </c>
       <c r="C15" t="n">
-        <v>3.589224409614446</v>
+        <v>3.827510695943708</v>
       </c>
       <c r="D15" t="n">
-        <v>3.952893427540636</v>
+        <v>52.00177500000001</v>
       </c>
       <c r="E15" t="n">
-        <v>7.178448819228891</v>
+        <v>0.4415</v>
       </c>
       <c r="F15" t="n">
-        <v>52.87334875000001</v>
+        <v>12.72</v>
       </c>
       <c r="G15" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -851,106 +1076,250 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Neu5Ac(a2-6)GalNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.136458867</v>
+        <v>2.912239284799641</v>
       </c>
       <c r="C16" t="n">
-        <v>4.390569521716285</v>
+        <v>3.589224409614446</v>
       </c>
       <c r="D16" t="n">
-        <v>4.390569521716285</v>
+        <v>53.64115000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>4.390569521716285</v>
+        <v>0.4345</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8284271027102699</v>
+        <v>5.359999999999999</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)', 'Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)][GlcNAc(b1-4)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.392088628</v>
+        <v>1.024860747821688</v>
       </c>
       <c r="C17" t="n">
-        <v>4.536346695756726</v>
+        <v>3.982816231500002</v>
       </c>
       <c r="D17" t="n">
-        <v>4.536346695756726</v>
+        <v>30.35473333333334</v>
       </c>
       <c r="E17" t="n">
-        <v>4.536346695756726</v>
+        <v>0.388</v>
       </c>
       <c r="F17" t="n">
-        <v>2.247657833333334</v>
+        <v>1.06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+          <t>Neu5Ac(a2-6)GalNAc</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.134347351</v>
+        <v>-0.1364588673400938</v>
       </c>
       <c r="C18" t="n">
-        <v>3.829348253889487</v>
+        <v>4.379913696596782</v>
       </c>
       <c r="D18" t="n">
-        <v>3.829348253889487</v>
+        <v>1.805880588058806</v>
       </c>
       <c r="E18" t="n">
-        <v>3.829348253889487</v>
+        <v>0.437</v>
       </c>
       <c r="F18" t="n">
-        <v>48.79183585000001</v>
+        <v>13.25</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Neu5Ac(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>O</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
+          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.392088628063353</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.536346695756726</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.665100000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="F19" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['B3,O6']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.134347350959704</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.829348253889487</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48.58260000000001</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['2C5']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
           <t>Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Neu5Gc(a2-6)Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2.264987927</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B21" t="n">
+        <v>2.264987926948429</v>
+      </c>
+      <c r="C21" t="n">
         <v>4.002608069703003</v>
       </c>
-      <c r="D19" t="n">
-        <v>4.097181451668026</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.005216139406006</v>
-      </c>
-      <c r="F19" t="n">
-        <v>54.44175824999999</v>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="D21" t="n">
+        <v>54.97971428571428</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4165</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8.835000000000001</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['2C5', '2C5']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Neu5Gc(a2-6)', 'Neu5Gc(a2-6)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Sia(a2-6)']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>N</t>
         </is>
